--- a/temp/Santei/Resources/ErrorSantei.xlsx
+++ b/temp/Santei/Resources/ErrorSantei.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Tên file ảnh (Đường dẫn\tên batch\tên file ảnh)</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>25.合計6月</t>
+  </si>
+  <si>
+    <t>Flag</t>
   </si>
 </sst>
 </file>
@@ -481,13 +484,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +500,7 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -585,7 +588,10 @@
       <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
